--- a/TotalPlano.xlsx
+++ b/TotalPlano.xlsx
@@ -5958,7 +5958,7 @@
         <v>213</v>
       </c>
       <c r="D241" s="1">
-        <v>256800008227</v>
+        <v>256800036996</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6684,7 +6684,7 @@
         <v>258</v>
       </c>
       <c r="D293" s="1">
-        <v>0</v>
+        <v>256700068933</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6754,7 +6754,7 @@
         <v>263</v>
       </c>
       <c r="D298" s="1">
-        <v>0</v>
+        <v>236000686170</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6880,7 +6880,7 @@
         <v>272</v>
       </c>
       <c r="D307" s="1">
-        <v>0</v>
+        <v>256700043035</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7538,7 +7538,7 @@
         <v>316</v>
       </c>
       <c r="D354" s="1">
-        <v>0</v>
+        <v>236800024473</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -9484,7 +9484,7 @@
         <v>444</v>
       </c>
       <c r="D493" s="1">
-        <v>236870037578</v>
+        <v>236870037579</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -12242,7 +12242,7 @@
         <v>621</v>
       </c>
       <c r="D690" s="1">
-        <v>0</v>
+        <v>236070198254</v>
       </c>
     </row>
     <row r="691" spans="1:4">

--- a/TotalPlano.xlsx
+++ b/TotalPlano.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="PagoPlanta20140204" sheetId="1" r:id="rId4"/>
+    <sheet name="PagoPlanta20140203" sheetId="1" r:id="rId4"/>
     <sheet name="Worksheet 1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="737">
   <si>
     <t>C</t>
   </si>
@@ -1522,9 +1522,6 @@
   </si>
   <si>
     <t xml:space="preserve">PEDRAZA FERNANDEZ MELLY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDROZO BARRAGAN KARINA </t>
   </si>
   <si>
     <t>PEÑA PINTO CARLOS GABRIEL</t>
@@ -2802,7 +2799,7 @@
         <v>40929425</v>
       </c>
       <c r="B16" s="1">
-        <v>317521</v>
+        <v>211680</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -2816,7 +2813,7 @@
         <v>40929425</v>
       </c>
       <c r="B17" s="1">
-        <v>211680</v>
+        <v>317521</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -2984,7 +2981,7 @@
         <v>17815281</v>
       </c>
       <c r="B29" s="1">
-        <v>1496704</v>
+        <v>1291380</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -3558,7 +3555,7 @@
         <v>78703185</v>
       </c>
       <c r="B70" s="1">
-        <v>1340331</v>
+        <v>1372244</v>
       </c>
       <c r="C70" t="s">
         <v>58</v>
@@ -3572,7 +3569,7 @@
         <v>56088939</v>
       </c>
       <c r="B71" s="1">
-        <v>372319</v>
+        <v>409551</v>
       </c>
       <c r="C71" t="s">
         <v>59</v>
@@ -3838,7 +3835,7 @@
         <v>84009638</v>
       </c>
       <c r="B90" s="1">
-        <v>851020</v>
+        <v>425510</v>
       </c>
       <c r="C90" t="s">
         <v>74</v>
@@ -3852,7 +3849,7 @@
         <v>84009638</v>
       </c>
       <c r="B91" s="1">
-        <v>425510</v>
+        <v>851020</v>
       </c>
       <c r="C91" t="s">
         <v>74</v>
@@ -3880,7 +3877,7 @@
         <v>17802444</v>
       </c>
       <c r="B93" s="1">
-        <v>765904</v>
+        <v>581104</v>
       </c>
       <c r="C93" t="s">
         <v>76</v>
@@ -4762,7 +4759,7 @@
         <v>12560126</v>
       </c>
       <c r="B156" s="1">
-        <v>781870</v>
+        <v>800486</v>
       </c>
       <c r="C156" t="s">
         <v>137</v>
@@ -4958,7 +4955,7 @@
         <v>1036621602</v>
       </c>
       <c r="B170" s="1">
-        <v>781870</v>
+        <v>800486</v>
       </c>
       <c r="C170" t="s">
         <v>148</v>
@@ -5154,7 +5151,7 @@
         <v>56098390</v>
       </c>
       <c r="B184" s="1">
-        <v>1908894</v>
+        <v>1785694</v>
       </c>
       <c r="C184" t="s">
         <v>161</v>
@@ -5784,7 +5781,7 @@
         <v>17809530</v>
       </c>
       <c r="B229" s="1">
-        <v>762035</v>
+        <v>392435</v>
       </c>
       <c r="C229" t="s">
         <v>202</v>
@@ -6888,7 +6885,7 @@
         <v>12646751</v>
       </c>
       <c r="B308" s="1">
-        <v>661956</v>
+        <v>477122</v>
       </c>
       <c r="C308" t="s">
         <v>273</v>
@@ -6944,7 +6941,7 @@
         <v>12636185</v>
       </c>
       <c r="B312" s="1">
-        <v>372319</v>
+        <v>409551</v>
       </c>
       <c r="C312" t="s">
         <v>277</v>
@@ -7378,7 +7375,7 @@
         <v>84093321</v>
       </c>
       <c r="B343" s="1">
-        <v>1340349</v>
+        <v>1155549</v>
       </c>
       <c r="C343" t="s">
         <v>305</v>
@@ -7672,7 +7669,7 @@
         <v>40984193</v>
       </c>
       <c r="B364" s="1">
-        <v>372319</v>
+        <v>409551</v>
       </c>
       <c r="C364" t="s">
         <v>324</v>
@@ -7868,7 +7865,7 @@
         <v>71610039</v>
       </c>
       <c r="B378" s="1">
-        <v>1693444</v>
+        <v>1249244</v>
       </c>
       <c r="C378" t="s">
         <v>337</v>
@@ -7966,7 +7963,7 @@
         <v>84076723</v>
       </c>
       <c r="B385" s="1">
-        <v>781870</v>
+        <v>800486</v>
       </c>
       <c r="C385" t="s">
         <v>344</v>
@@ -8512,7 +8509,7 @@
         <v>84087940</v>
       </c>
       <c r="B424" s="1">
-        <v>1276506</v>
+        <v>1091706</v>
       </c>
       <c r="C424" t="s">
         <v>381</v>
@@ -9156,7 +9153,7 @@
         <v>27041821</v>
       </c>
       <c r="B470" s="1">
-        <v>781870</v>
+        <v>800486</v>
       </c>
       <c r="C470" t="s">
         <v>421</v>
@@ -9240,7 +9237,7 @@
         <v>77189548</v>
       </c>
       <c r="B476" s="1">
-        <v>781870</v>
+        <v>800486</v>
       </c>
       <c r="C476" t="s">
         <v>427</v>
@@ -10399,175 +10396,175 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559">
-        <v>1118811627</v>
+        <v>17975871</v>
       </c>
       <c r="B559" s="1">
-        <v>1191421</v>
+        <v>297855</v>
       </c>
       <c r="C559" t="s">
         <v>502</v>
       </c>
       <c r="D559" s="1">
-        <v>236870027588</v>
+        <v>256800006528</v>
       </c>
     </row>
     <row r="560" spans="1:4">
       <c r="A560">
-        <v>17975871</v>
+        <v>40928745</v>
       </c>
       <c r="B560" s="1">
-        <v>297855</v>
+        <v>1016047</v>
       </c>
       <c r="C560" t="s">
         <v>503</v>
       </c>
       <c r="D560" s="1">
-        <v>256800006528</v>
+        <v>236070198064</v>
       </c>
     </row>
     <row r="561" spans="1:4">
       <c r="A561">
-        <v>40928745</v>
+        <v>26995191</v>
       </c>
       <c r="B561" s="1">
-        <v>1016047</v>
+        <v>1191421</v>
       </c>
       <c r="C561" t="s">
         <v>504</v>
       </c>
       <c r="D561" s="1">
-        <v>236070198064</v>
+        <v>236070225503</v>
       </c>
     </row>
     <row r="562" spans="1:4">
       <c r="A562">
-        <v>26995191</v>
+        <v>9053922</v>
       </c>
       <c r="B562" s="1">
-        <v>1191421</v>
+        <v>3063614</v>
       </c>
       <c r="C562" t="s">
         <v>505</v>
       </c>
       <c r="D562" s="1">
-        <v>236070225503</v>
+        <v>236070252010</v>
       </c>
     </row>
     <row r="563" spans="1:4">
       <c r="A563">
-        <v>9053922</v>
+        <v>79355195</v>
       </c>
       <c r="B563" s="1">
-        <v>3063614</v>
+        <v>592702</v>
       </c>
       <c r="C563" t="s">
         <v>506</v>
       </c>
       <c r="D563" s="1">
-        <v>236070252010</v>
+        <v>256700013186</v>
       </c>
     </row>
     <row r="564" spans="1:4">
       <c r="A564">
-        <v>79355195</v>
+        <v>40928713</v>
       </c>
       <c r="B564" s="1">
-        <v>592702</v>
+        <v>1016047</v>
       </c>
       <c r="C564" t="s">
         <v>507</v>
       </c>
       <c r="D564" s="1">
-        <v>256700013186</v>
+        <v>236000673160</v>
       </c>
     </row>
     <row r="565" spans="1:4">
       <c r="A565">
-        <v>40928713</v>
+        <v>77039731</v>
       </c>
       <c r="B565" s="1">
-        <v>1016047</v>
+        <v>851020</v>
       </c>
       <c r="C565" t="s">
         <v>508</v>
       </c>
       <c r="D565" s="1">
-        <v>236000673160</v>
+        <v>256700028945</v>
       </c>
     </row>
     <row r="566" spans="1:4">
       <c r="A566">
-        <v>77039731</v>
+        <v>77094264</v>
       </c>
       <c r="B566" s="1">
-        <v>851020</v>
+        <v>1276530</v>
       </c>
       <c r="C566" t="s">
         <v>509</v>
       </c>
       <c r="D566" s="1">
-        <v>256700028945</v>
+        <v>236870034832</v>
       </c>
     </row>
     <row r="567" spans="1:4">
       <c r="A567">
-        <v>77094264</v>
+        <v>40929934</v>
       </c>
       <c r="B567" s="1">
-        <v>1276530</v>
+        <v>510602</v>
       </c>
       <c r="C567" t="s">
         <v>510</v>
       </c>
       <c r="D567" s="1">
-        <v>236870034832</v>
+        <v>236070251855</v>
       </c>
     </row>
     <row r="568" spans="1:4">
       <c r="A568">
-        <v>40929934</v>
+        <v>26985274</v>
       </c>
       <c r="B568" s="1">
-        <v>1531807</v>
+        <v>446783</v>
       </c>
       <c r="C568" t="s">
         <v>511</v>
       </c>
       <c r="D568" s="1">
-        <v>236070251855</v>
+        <v>256700058785</v>
       </c>
     </row>
     <row r="569" spans="1:4">
       <c r="A569">
-        <v>26985274</v>
+        <v>32773106</v>
       </c>
       <c r="B569" s="1">
-        <v>446783</v>
+        <v>595711</v>
       </c>
       <c r="C569" t="s">
         <v>512</v>
       </c>
       <c r="D569" s="1">
-        <v>256700058785</v>
+        <v>236870038320</v>
       </c>
     </row>
     <row r="570" spans="1:4">
       <c r="A570">
-        <v>32773106</v>
+        <v>40796428</v>
       </c>
       <c r="B570" s="1">
-        <v>595711</v>
+        <v>1191421</v>
       </c>
       <c r="C570" t="s">
         <v>513</v>
       </c>
       <c r="D570" s="1">
-        <v>236870011616</v>
+        <v>236800003345</v>
       </c>
     </row>
     <row r="571" spans="1:4">
       <c r="A571">
-        <v>40796428</v>
+        <v>73008997</v>
       </c>
       <c r="B571" s="1">
         <v>1191421</v>
@@ -10576,105 +10573,105 @@
         <v>514</v>
       </c>
       <c r="D571" s="1">
-        <v>236800003345</v>
+        <v>236870028370</v>
       </c>
     </row>
     <row r="572" spans="1:4">
       <c r="A572">
-        <v>73008997</v>
+        <v>72008691</v>
       </c>
       <c r="B572" s="1">
-        <v>1191421</v>
+        <v>297855</v>
       </c>
       <c r="C572" t="s">
         <v>515</v>
       </c>
       <c r="D572" s="1">
-        <v>236870028370</v>
+        <v>236070197082</v>
       </c>
     </row>
     <row r="573" spans="1:4">
       <c r="A573">
-        <v>72008691</v>
+        <v>84069205</v>
       </c>
       <c r="B573" s="1">
-        <v>297855</v>
+        <v>595711</v>
       </c>
       <c r="C573" t="s">
         <v>516</v>
       </c>
       <c r="D573" s="1">
-        <v>236070197082</v>
+        <v>236870030202</v>
       </c>
     </row>
     <row r="574" spans="1:4">
       <c r="A574">
-        <v>84069205</v>
+        <v>40939905</v>
       </c>
       <c r="B574" s="1">
-        <v>595711</v>
+        <v>2680698</v>
       </c>
       <c r="C574" t="s">
         <v>517</v>
       </c>
       <c r="D574" s="1">
-        <v>236870030202</v>
+        <v>236800005084</v>
       </c>
     </row>
     <row r="575" spans="1:4">
       <c r="A575">
-        <v>40939905</v>
+        <v>17952378</v>
       </c>
       <c r="B575" s="1">
-        <v>2680698</v>
+        <v>1021205</v>
       </c>
       <c r="C575" t="s">
         <v>518</v>
       </c>
       <c r="D575" s="1">
-        <v>236800005084</v>
+        <v>236070163779</v>
       </c>
     </row>
     <row r="576" spans="1:4">
       <c r="A576">
-        <v>17952378</v>
+        <v>1063074032</v>
       </c>
       <c r="B576" s="1">
-        <v>1021205</v>
+        <v>372319</v>
       </c>
       <c r="C576" t="s">
         <v>519</v>
       </c>
       <c r="D576" s="1">
-        <v>236070163779</v>
+        <v>236070246434</v>
       </c>
     </row>
     <row r="577" spans="1:4">
       <c r="A577">
-        <v>1063074032</v>
+        <v>40912700</v>
       </c>
       <c r="B577" s="1">
-        <v>372319</v>
+        <v>1021205</v>
       </c>
       <c r="C577" t="s">
         <v>520</v>
       </c>
       <c r="D577" s="1">
-        <v>236070246434</v>
+        <v>236000662114</v>
       </c>
     </row>
     <row r="578" spans="1:4">
       <c r="A578">
-        <v>40912700</v>
+        <v>17177664</v>
       </c>
       <c r="B578" s="1">
-        <v>1021205</v>
+        <v>1276506</v>
       </c>
       <c r="C578" t="s">
         <v>521</v>
       </c>
       <c r="D578" s="1">
-        <v>236000662114</v>
+        <v>236070189303</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -10682,10 +10679,10 @@
         <v>17177664</v>
       </c>
       <c r="B579" s="1">
-        <v>1276506</v>
+        <v>1021205</v>
       </c>
       <c r="C579" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D579" s="1">
         <v>236070189303</v>
@@ -10693,58 +10690,58 @@
     </row>
     <row r="580" spans="1:4">
       <c r="A580">
-        <v>17177664</v>
+        <v>17973364</v>
       </c>
       <c r="B580" s="1">
-        <v>1021205</v>
+        <v>425510</v>
       </c>
       <c r="C580" t="s">
         <v>522</v>
       </c>
       <c r="D580" s="1">
-        <v>236070189303</v>
+        <v>256800029306</v>
       </c>
     </row>
     <row r="581" spans="1:4">
       <c r="A581">
-        <v>17973364</v>
+        <v>1067859575</v>
       </c>
       <c r="B581" s="1">
-        <v>425510</v>
+        <v>446783</v>
       </c>
       <c r="C581" t="s">
         <v>523</v>
       </c>
       <c r="D581" s="1">
-        <v>256800029306</v>
+        <v>236870037462</v>
       </c>
     </row>
     <row r="582" spans="1:4">
       <c r="A582">
-        <v>1067859575</v>
+        <v>15225712</v>
       </c>
       <c r="B582" s="1">
-        <v>446783</v>
+        <v>2042410</v>
       </c>
       <c r="C582" t="s">
         <v>524</v>
       </c>
       <c r="D582" s="1">
-        <v>236870037462</v>
+        <v>256800027227</v>
       </c>
     </row>
     <row r="583" spans="1:4">
       <c r="A583">
-        <v>15225712</v>
+        <v>1118827638</v>
       </c>
       <c r="B583" s="1">
-        <v>2042410</v>
+        <v>223392</v>
       </c>
       <c r="C583" t="s">
         <v>525</v>
       </c>
       <c r="D583" s="1">
-        <v>256800027227</v>
+        <v>236870037512</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -10752,10 +10749,10 @@
         <v>1118827638</v>
       </c>
       <c r="B584" s="1">
-        <v>223392</v>
+        <v>819102</v>
       </c>
       <c r="C584" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D584" s="1">
         <v>236870037512</v>
@@ -10763,114 +10760,114 @@
     </row>
     <row r="585" spans="1:4">
       <c r="A585">
-        <v>1118827638</v>
+        <v>40923593</v>
       </c>
       <c r="B585" s="1">
-        <v>819102</v>
+        <v>829729</v>
       </c>
       <c r="C585" t="s">
         <v>526</v>
       </c>
       <c r="D585" s="1">
-        <v>236870037512</v>
+        <v>236070187083</v>
       </c>
     </row>
     <row r="586" spans="1:4">
       <c r="A586">
-        <v>40923593</v>
+        <v>40938183</v>
       </c>
       <c r="B586" s="1">
-        <v>829729</v>
+        <v>1016047</v>
       </c>
       <c r="C586" t="s">
         <v>527</v>
       </c>
       <c r="D586" s="1">
-        <v>236070187083</v>
+        <v>236000652958</v>
       </c>
     </row>
     <row r="587" spans="1:4">
       <c r="A587">
-        <v>40938183</v>
+        <v>17866390</v>
       </c>
       <c r="B587" s="1">
-        <v>1016047</v>
+        <v>1021205</v>
       </c>
       <c r="C587" t="s">
         <v>528</v>
       </c>
       <c r="D587" s="1">
-        <v>236000652958</v>
+        <v>236070177563</v>
       </c>
     </row>
     <row r="588" spans="1:4">
       <c r="A588">
-        <v>17866390</v>
+        <v>7369860</v>
       </c>
       <c r="B588" s="1">
-        <v>1021205</v>
+        <v>319132</v>
       </c>
       <c r="C588" t="s">
         <v>529</v>
       </c>
       <c r="D588" s="1">
-        <v>236070177563</v>
+        <v>236870022845</v>
       </c>
     </row>
     <row r="589" spans="1:4">
       <c r="A589">
-        <v>7369860</v>
+        <v>84030870</v>
       </c>
       <c r="B589" s="1">
-        <v>319132</v>
+        <v>372319</v>
       </c>
       <c r="C589" t="s">
         <v>530</v>
       </c>
       <c r="D589" s="1">
-        <v>236870022845</v>
+        <v>236870031242</v>
       </c>
     </row>
     <row r="590" spans="1:4">
       <c r="A590">
-        <v>84030870</v>
+        <v>40923087</v>
       </c>
       <c r="B590" s="1">
-        <v>372319</v>
+        <v>2286106</v>
       </c>
       <c r="C590" t="s">
         <v>531</v>
       </c>
       <c r="D590" s="1">
-        <v>236870031242</v>
+        <v>236070228325</v>
       </c>
     </row>
     <row r="591" spans="1:4">
       <c r="A591">
-        <v>40923087</v>
+        <v>40937567</v>
       </c>
       <c r="B591" s="1">
-        <v>2286106</v>
+        <v>595711</v>
       </c>
       <c r="C591" t="s">
         <v>532</v>
       </c>
       <c r="D591" s="1">
-        <v>236070228325</v>
+        <v>236070259163</v>
       </c>
     </row>
     <row r="592" spans="1:4">
       <c r="A592">
-        <v>40937567</v>
+        <v>17804185</v>
       </c>
       <c r="B592" s="1">
-        <v>595711</v>
+        <v>382952</v>
       </c>
       <c r="C592" t="s">
         <v>533</v>
       </c>
       <c r="D592" s="1">
-        <v>236070259163</v>
+        <v>236070189469</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -10878,10 +10875,10 @@
         <v>17804185</v>
       </c>
       <c r="B593" s="1">
-        <v>382952</v>
+        <v>510602</v>
       </c>
       <c r="C593" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D593" s="1">
         <v>236070189469</v>
@@ -10889,35 +10886,35 @@
     </row>
     <row r="594" spans="1:4">
       <c r="A594">
-        <v>17804185</v>
+        <v>77022224</v>
       </c>
       <c r="B594" s="1">
-        <v>510602</v>
+        <v>186160</v>
       </c>
       <c r="C594" t="s">
         <v>534</v>
       </c>
       <c r="D594" s="1">
-        <v>236070189469</v>
+        <v>236000655837</v>
       </c>
     </row>
     <row r="595" spans="1:4">
       <c r="A595">
-        <v>77022224</v>
+        <v>84049193</v>
       </c>
       <c r="B595" s="1">
-        <v>186160</v>
+        <v>510602</v>
       </c>
       <c r="C595" t="s">
         <v>535</v>
       </c>
       <c r="D595" s="1">
-        <v>236000655837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:4">
       <c r="A596">
-        <v>84049193</v>
+        <v>17803237</v>
       </c>
       <c r="B596" s="1">
         <v>510602</v>
@@ -10926,7 +10923,7 @@
         <v>536</v>
       </c>
       <c r="D596" s="1">
-        <v>0</v>
+        <v>236070193685</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -10934,10 +10931,10 @@
         <v>17803237</v>
       </c>
       <c r="B597" s="1">
-        <v>510602</v>
+        <v>382952</v>
       </c>
       <c r="C597" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D597" s="1">
         <v>236070193685</v>
@@ -10945,44 +10942,44 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598">
-        <v>17803237</v>
+        <v>40936726</v>
       </c>
       <c r="B598" s="1">
-        <v>382952</v>
+        <v>595711</v>
       </c>
       <c r="C598" t="s">
         <v>537</v>
       </c>
       <c r="D598" s="1">
-        <v>236070193685</v>
+        <v>236070240429</v>
       </c>
     </row>
     <row r="599" spans="1:4">
       <c r="A599">
-        <v>40936726</v>
+        <v>1118811654</v>
       </c>
       <c r="B599" s="1">
-        <v>595711</v>
+        <v>2553012</v>
       </c>
       <c r="C599" t="s">
         <v>538</v>
       </c>
       <c r="D599" s="1">
-        <v>236070240429</v>
+        <v>236800019267</v>
       </c>
     </row>
     <row r="600" spans="1:4">
       <c r="A600">
-        <v>1118811654</v>
+        <v>84092587</v>
       </c>
       <c r="B600" s="1">
-        <v>2553012</v>
+        <v>1276506</v>
       </c>
       <c r="C600" t="s">
         <v>539</v>
       </c>
       <c r="D600" s="1">
-        <v>236800019267</v>
+        <v>236870011079</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -10990,10 +10987,10 @@
         <v>84092587</v>
       </c>
       <c r="B601" s="1">
-        <v>1276506</v>
+        <v>1021205</v>
       </c>
       <c r="C601" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D601" s="1">
         <v>236870011079</v>
@@ -11001,16 +10998,16 @@
     </row>
     <row r="602" spans="1:4">
       <c r="A602">
-        <v>84092587</v>
+        <v>26962692</v>
       </c>
       <c r="B602" s="1">
-        <v>1021205</v>
+        <v>382952</v>
       </c>
       <c r="C602" t="s">
         <v>540</v>
       </c>
       <c r="D602" s="1">
-        <v>236870011079</v>
+        <v>236070189295</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11018,10 +11015,10 @@
         <v>26962692</v>
       </c>
       <c r="B603" s="1">
-        <v>382952</v>
+        <v>1276506</v>
       </c>
       <c r="C603" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D603" s="1">
         <v>236070189295</v>
@@ -11029,44 +11026,44 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604">
-        <v>26962692</v>
+        <v>84088560</v>
       </c>
       <c r="B604" s="1">
-        <v>1276506</v>
+        <v>1270083</v>
       </c>
       <c r="C604" t="s">
         <v>541</v>
       </c>
       <c r="D604" s="1">
-        <v>236070189295</v>
+        <v>236800012924</v>
       </c>
     </row>
     <row r="605" spans="1:4">
       <c r="A605">
-        <v>84088560</v>
+        <v>17901468</v>
       </c>
       <c r="B605" s="1">
-        <v>1270083</v>
+        <v>319132</v>
       </c>
       <c r="C605" t="s">
         <v>542</v>
       </c>
       <c r="D605" s="1">
-        <v>236800012924</v>
+        <v>236070256458</v>
       </c>
     </row>
     <row r="606" spans="1:4">
       <c r="A606">
-        <v>17901468</v>
+        <v>84034468</v>
       </c>
       <c r="B606" s="1">
-        <v>319132</v>
+        <v>635030</v>
       </c>
       <c r="C606" t="s">
         <v>543</v>
       </c>
       <c r="D606" s="1">
-        <v>236070256458</v>
+        <v>236070221528</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -11074,10 +11071,10 @@
         <v>84034468</v>
       </c>
       <c r="B607" s="1">
-        <v>635030</v>
+        <v>1016047</v>
       </c>
       <c r="C607" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D607" s="1">
         <v>236070221528</v>
@@ -11085,21 +11082,21 @@
     </row>
     <row r="608" spans="1:4">
       <c r="A608">
-        <v>84034468</v>
+        <v>84080105</v>
       </c>
       <c r="B608" s="1">
-        <v>1016047</v>
+        <v>851020</v>
       </c>
       <c r="C608" t="s">
         <v>544</v>
       </c>
       <c r="D608" s="1">
-        <v>236070221528</v>
+        <v>236070215322</v>
       </c>
     </row>
     <row r="609" spans="1:4">
       <c r="A609">
-        <v>84080105</v>
+        <v>26995216</v>
       </c>
       <c r="B609" s="1">
         <v>851020</v>
@@ -11108,40 +11105,40 @@
         <v>545</v>
       </c>
       <c r="D609" s="1">
-        <v>236070215322</v>
+        <v>236800022568</v>
       </c>
     </row>
     <row r="610" spans="1:4">
       <c r="A610">
-        <v>26995216</v>
+        <v>84088353</v>
       </c>
       <c r="B610" s="1">
-        <v>851020</v>
+        <v>1021205</v>
       </c>
       <c r="C610" t="s">
         <v>546</v>
       </c>
       <c r="D610" s="1">
-        <v>236800022568</v>
+        <v>236800015208</v>
       </c>
     </row>
     <row r="611" spans="1:4">
       <c r="A611">
-        <v>84088353</v>
+        <v>56074865</v>
       </c>
       <c r="B611" s="1">
-        <v>1021205</v>
+        <v>595711</v>
       </c>
       <c r="C611" t="s">
         <v>547</v>
       </c>
       <c r="D611" s="1">
-        <v>236800015208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:4">
       <c r="A612">
-        <v>56074865</v>
+        <v>18936535</v>
       </c>
       <c r="B612" s="1">
         <v>595711</v>
@@ -11150,63 +11147,63 @@
         <v>548</v>
       </c>
       <c r="D612" s="1">
-        <v>0</v>
+        <v>236070194626</v>
       </c>
     </row>
     <row r="613" spans="1:4">
       <c r="A613">
-        <v>18936535</v>
+        <v>56074752</v>
       </c>
       <c r="B613" s="1">
-        <v>595711</v>
+        <v>510602</v>
       </c>
       <c r="C613" t="s">
         <v>549</v>
       </c>
       <c r="D613" s="1">
-        <v>236070194626</v>
+        <v>256700049917</v>
       </c>
     </row>
     <row r="614" spans="1:4">
       <c r="A614">
-        <v>56074752</v>
+        <v>33133932</v>
       </c>
       <c r="B614" s="1">
-        <v>510602</v>
+        <v>2074457</v>
       </c>
       <c r="C614" t="s">
         <v>550</v>
       </c>
       <c r="D614" s="1">
-        <v>256700049917</v>
+        <v>236070213335</v>
       </c>
     </row>
     <row r="615" spans="1:4">
       <c r="A615">
-        <v>33133932</v>
+        <v>88157053</v>
       </c>
       <c r="B615" s="1">
-        <v>2074457</v>
+        <v>595711</v>
       </c>
       <c r="C615" t="s">
         <v>551</v>
       </c>
       <c r="D615" s="1">
-        <v>236070213335</v>
+        <v>236870037397</v>
       </c>
     </row>
     <row r="616" spans="1:4">
       <c r="A616">
-        <v>88157053</v>
+        <v>32683031</v>
       </c>
       <c r="B616" s="1">
-        <v>595711</v>
+        <v>212755</v>
       </c>
       <c r="C616" t="s">
         <v>552</v>
       </c>
       <c r="D616" s="1">
-        <v>236870037397</v>
+        <v>26500116699</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -11214,10 +11211,10 @@
         <v>32683031</v>
       </c>
       <c r="B617" s="1">
-        <v>212755</v>
+        <v>691454</v>
       </c>
       <c r="C617" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D617" s="1">
         <v>26500116699</v>
@@ -11228,10 +11225,10 @@
         <v>84043456</v>
       </c>
       <c r="B618" s="1">
-        <v>3063614</v>
+        <v>2694014</v>
       </c>
       <c r="C618" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D618" s="1">
         <v>236000039842</v>
@@ -11245,7 +11242,7 @@
         <v>425510</v>
       </c>
       <c r="C619" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D619" s="1">
         <v>236870034816</v>
@@ -11259,7 +11256,7 @@
         <v>1021205</v>
       </c>
       <c r="C620" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D620" s="1">
         <v>236070187190</v>
@@ -11270,10 +11267,10 @@
         <v>1030583155</v>
       </c>
       <c r="B621" s="1">
-        <v>372319</v>
+        <v>409551</v>
       </c>
       <c r="C621" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D621" s="1">
         <v>0</v>
@@ -11287,7 +11284,7 @@
         <v>1021205</v>
       </c>
       <c r="C622" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D622" s="1">
         <v>236070249057</v>
@@ -11301,7 +11298,7 @@
         <v>595711</v>
       </c>
       <c r="C623" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D623" s="1">
         <v>256700062258</v>
@@ -11315,7 +11312,7 @@
         <v>1531807</v>
       </c>
       <c r="C624" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D624" s="1">
         <v>236870030962</v>
@@ -11329,7 +11326,7 @@
         <v>297855</v>
       </c>
       <c r="C625" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D625" s="1">
         <v>256800048272</v>
@@ -11343,7 +11340,7 @@
         <v>510602</v>
       </c>
       <c r="C626" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D626" s="1">
         <v>236070178371</v>
@@ -11354,10 +11351,10 @@
         <v>72000517</v>
       </c>
       <c r="B627" s="1">
-        <v>781870</v>
+        <v>800486</v>
       </c>
       <c r="C627" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D627" s="1">
         <v>236070258488</v>
@@ -11371,7 +11368,7 @@
         <v>1270083</v>
       </c>
       <c r="C628" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D628" s="1">
         <v>236870009693</v>
@@ -11385,7 +11382,7 @@
         <v>635030</v>
       </c>
       <c r="C629" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D629" s="1">
         <v>236800002677</v>
@@ -11399,7 +11396,7 @@
         <v>1841586</v>
       </c>
       <c r="C630" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D630" s="1">
         <v>236800013070</v>
@@ -11413,7 +11410,7 @@
         <v>638265</v>
       </c>
       <c r="C631" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D631" s="1">
         <v>256800044602</v>
@@ -11427,7 +11424,7 @@
         <v>297855</v>
       </c>
       <c r="C632" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D632" s="1">
         <v>236800013401</v>
@@ -11441,7 +11438,7 @@
         <v>1016047</v>
       </c>
       <c r="C633" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D633" s="1">
         <v>236070194055</v>
@@ -11455,7 +11452,7 @@
         <v>382952</v>
       </c>
       <c r="C634" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D634" s="1">
         <v>236070198320</v>
@@ -11469,7 +11466,7 @@
         <v>595711</v>
       </c>
       <c r="C635" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D635" s="1">
         <v>236800022378</v>
@@ -11480,10 +11477,10 @@
         <v>40983792</v>
       </c>
       <c r="B636" s="1">
-        <v>781870</v>
+        <v>800486</v>
       </c>
       <c r="C636" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D636" s="1">
         <v>236870037405</v>
@@ -11497,7 +11494,7 @@
         <v>1531807</v>
       </c>
       <c r="C637" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D637" s="1">
         <v>236070245097</v>
@@ -11511,7 +11508,7 @@
         <v>510602</v>
       </c>
       <c r="C638" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D638" s="1">
         <v>236070149091</v>
@@ -11525,7 +11522,7 @@
         <v>510602</v>
       </c>
       <c r="C639" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D639" s="1">
         <v>236070149091</v>
@@ -11539,7 +11536,7 @@
         <v>297855</v>
       </c>
       <c r="C640" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D640" s="1">
         <v>236870037538</v>
@@ -11553,7 +11550,7 @@
         <v>851020</v>
       </c>
       <c r="C641" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D641" s="1">
         <v>236000672774</v>
@@ -11567,7 +11564,7 @@
         <v>1021205</v>
       </c>
       <c r="C642" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D642" s="1">
         <v>236070188024</v>
@@ -11581,7 +11578,7 @@
         <v>446783</v>
       </c>
       <c r="C643" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D643" s="1">
         <v>236070255641</v>
@@ -11595,7 +11592,7 @@
         <v>1659458</v>
       </c>
       <c r="C644" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D644" s="1">
         <v>236070188040</v>
@@ -11609,7 +11606,7 @@
         <v>846722</v>
       </c>
       <c r="C645" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D645" s="1">
         <v>236070140744</v>
@@ -11623,7 +11620,7 @@
         <v>1021205</v>
       </c>
       <c r="C646" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D646" s="1">
         <v>236070221593</v>
@@ -11637,7 +11634,7 @@
         <v>223392</v>
       </c>
       <c r="C647" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D647" s="1">
         <v>230270000360</v>
@@ -11651,7 +11648,7 @@
         <v>638265</v>
       </c>
       <c r="C648" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D648" s="1">
         <v>256700067232</v>
@@ -11665,7 +11662,7 @@
         <v>1524071</v>
       </c>
       <c r="C649" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D649" s="1">
         <v>236070190921</v>
@@ -11679,7 +11676,7 @@
         <v>1191421</v>
       </c>
       <c r="C650" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D650" s="1">
         <v>236870001039</v>
@@ -11693,7 +11690,7 @@
         <v>297855</v>
       </c>
       <c r="C651" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D651" s="1">
         <v>0</v>
@@ -11707,7 +11704,7 @@
         <v>893566</v>
       </c>
       <c r="C652" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D652" s="1">
         <v>256700065426</v>
@@ -11721,7 +11718,7 @@
         <v>297855</v>
       </c>
       <c r="C653" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D653" s="1">
         <v>236070214473</v>
@@ -11735,7 +11732,7 @@
         <v>446783</v>
       </c>
       <c r="C654" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D654" s="1">
         <v>236870031051</v>
@@ -11749,7 +11746,7 @@
         <v>297855</v>
       </c>
       <c r="C655" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D655" s="1">
         <v>236000685974</v>
@@ -11763,7 +11760,7 @@
         <v>510602</v>
       </c>
       <c r="C656" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D656" s="1">
         <v>236870030921</v>
@@ -11777,7 +11774,7 @@
         <v>510602</v>
       </c>
       <c r="C657" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D657" s="1">
         <v>236870030921</v>
@@ -11791,7 +11788,7 @@
         <v>254012</v>
       </c>
       <c r="C658" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D658" s="1">
         <v>257100002589</v>
@@ -11805,7 +11802,7 @@
         <v>762035</v>
       </c>
       <c r="C659" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D659" s="1">
         <v>257100002589</v>
@@ -11819,7 +11816,7 @@
         <v>595711</v>
       </c>
       <c r="C660" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D660" s="1">
         <v>236870019890</v>
@@ -11833,7 +11830,7 @@
         <v>382952</v>
       </c>
       <c r="C661" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D661" s="1">
         <v>256200016523</v>
@@ -11847,7 +11844,7 @@
         <v>521247</v>
       </c>
       <c r="C662" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D662" s="1">
         <v>256800047415</v>
@@ -11861,7 +11858,7 @@
         <v>1276530</v>
       </c>
       <c r="C663" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D663" s="1">
         <v>236870025426</v>
@@ -11875,7 +11872,7 @@
         <v>846722</v>
       </c>
       <c r="C664" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D664" s="1">
         <v>236070234968</v>
@@ -11889,7 +11886,7 @@
         <v>1021205</v>
       </c>
       <c r="C665" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D665" s="1">
         <v>236070190756</v>
@@ -11903,7 +11900,7 @@
         <v>1021205</v>
       </c>
       <c r="C666" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D666" s="1">
         <v>236070191135</v>
@@ -11917,7 +11914,7 @@
         <v>1021205</v>
       </c>
       <c r="C667" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D667" s="1">
         <v>236070187539</v>
@@ -11931,7 +11928,7 @@
         <v>2042410</v>
       </c>
       <c r="C668" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D668" s="1">
         <v>206070238335</v>
@@ -11945,7 +11942,7 @@
         <v>2382843</v>
       </c>
       <c r="C669" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D669" s="1">
         <v>236070185871</v>
@@ -11959,7 +11956,7 @@
         <v>595711</v>
       </c>
       <c r="C670" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D670" s="1">
         <v>236870019775</v>
@@ -11973,7 +11970,7 @@
         <v>851020</v>
       </c>
       <c r="C671" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D671" s="1">
         <v>236070240676</v>
@@ -11987,7 +11984,7 @@
         <v>595711</v>
       </c>
       <c r="C672" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D672" s="1">
         <v>236070247028</v>
@@ -12001,7 +11998,7 @@
         <v>1021205</v>
       </c>
       <c r="C673" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D673" s="1">
         <v>236070217831</v>
@@ -12015,7 +12012,7 @@
         <v>1276514</v>
       </c>
       <c r="C674" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D674" s="1">
         <v>236070221072</v>
@@ -12029,7 +12026,7 @@
         <v>1021205</v>
       </c>
       <c r="C675" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D675" s="1">
         <v>236070248463</v>
@@ -12043,7 +12040,7 @@
         <v>255301</v>
       </c>
       <c r="C676" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D676" s="1">
         <v>236070167671</v>
@@ -12057,7 +12054,7 @@
         <v>765904</v>
       </c>
       <c r="C677" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D677" s="1">
         <v>236070167671</v>
@@ -12071,7 +12068,7 @@
         <v>223392</v>
       </c>
       <c r="C678" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D678" s="1">
         <v>236870019940</v>
@@ -12085,7 +12082,7 @@
         <v>1021205</v>
       </c>
       <c r="C679" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D679" s="1">
         <v>236070236401</v>
@@ -12099,7 +12096,7 @@
         <v>1021205</v>
       </c>
       <c r="C680" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D680" s="1">
         <v>236070188214</v>
@@ -12113,7 +12110,7 @@
         <v>595711</v>
       </c>
       <c r="C681" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D681" s="1">
         <v>236070163092</v>
@@ -12127,7 +12124,7 @@
         <v>595711</v>
       </c>
       <c r="C682" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D682" s="1">
         <v>236070163092</v>
@@ -12141,7 +12138,7 @@
         <v>851020</v>
       </c>
       <c r="C683" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D683" s="1">
         <v>236070225859</v>
@@ -12155,7 +12152,7 @@
         <v>425510</v>
       </c>
       <c r="C684" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D684" s="1">
         <v>236000147710</v>
@@ -12169,7 +12166,7 @@
         <v>222263</v>
       </c>
       <c r="C685" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D685" s="1">
         <v>236070251772</v>
@@ -12183,7 +12180,7 @@
         <v>893566</v>
       </c>
       <c r="C686" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D686" s="1">
         <v>256800031245</v>
@@ -12197,7 +12194,7 @@
         <v>595711</v>
       </c>
       <c r="C687" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D687" s="1">
         <v>236870037306</v>
@@ -12211,7 +12208,7 @@
         <v>851020</v>
       </c>
       <c r="C688" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D688" s="1">
         <v>236070175740</v>
@@ -12225,7 +12222,7 @@
         <v>2667159</v>
       </c>
       <c r="C689" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D689" s="1">
         <v>236070224985</v>
@@ -12239,7 +12236,7 @@
         <v>510602</v>
       </c>
       <c r="C690" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D690" s="1">
         <v>236070198254</v>
@@ -12253,7 +12250,7 @@
         <v>259132</v>
       </c>
       <c r="C691" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D691" s="1">
         <v>236070222393</v>
@@ -12267,7 +12264,7 @@
         <v>423361</v>
       </c>
       <c r="C692" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D692" s="1">
         <v>256070375041</v>
@@ -12281,7 +12278,7 @@
         <v>297855</v>
       </c>
       <c r="C693" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D693" s="1">
         <v>236070139340</v>
@@ -12295,7 +12292,7 @@
         <v>1021205</v>
       </c>
       <c r="C694" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D694" s="1">
         <v>236070187927</v>
@@ -12309,7 +12306,7 @@
         <v>1191421</v>
       </c>
       <c r="C695" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D695" s="1">
         <v>236070065966</v>
@@ -12323,7 +12320,7 @@
         <v>1021205</v>
       </c>
       <c r="C696" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D696" s="1">
         <v>236870030913</v>
@@ -12337,7 +12334,7 @@
         <v>1116958</v>
       </c>
       <c r="C697" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D697" s="1">
         <v>236070248174</v>
@@ -12351,7 +12348,7 @@
         <v>638265</v>
       </c>
       <c r="C698" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D698" s="1">
         <v>256800011577</v>
@@ -12365,7 +12362,7 @@
         <v>510602</v>
       </c>
       <c r="C699" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D699" s="1">
         <v>236800012486</v>
@@ -12379,7 +12376,7 @@
         <v>382952</v>
       </c>
       <c r="C700" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D700" s="1">
         <v>236800012486</v>
@@ -12393,7 +12390,7 @@
         <v>223392</v>
       </c>
       <c r="C701" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D701" s="1">
         <v>236000684704</v>
@@ -12407,7 +12404,7 @@
         <v>297855</v>
       </c>
       <c r="C702" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D702" s="1">
         <v>256700051319</v>
@@ -12421,7 +12418,7 @@
         <v>595711</v>
       </c>
       <c r="C703" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D703" s="1">
         <v>9000275900</v>
@@ -12435,7 +12432,7 @@
         <v>1021205</v>
       </c>
       <c r="C704" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D704" s="1">
         <v>256700042938</v>
@@ -12449,7 +12446,7 @@
         <v>510602</v>
       </c>
       <c r="C705" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D705" s="1">
         <v>236070187166</v>
@@ -12463,7 +12460,7 @@
         <v>893566</v>
       </c>
       <c r="C706" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D706" s="1">
         <v>236870028362</v>
@@ -12477,7 +12474,7 @@
         <v>510602</v>
       </c>
       <c r="C707" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D707" s="1">
         <v>256700007576</v>
@@ -12491,7 +12488,7 @@
         <v>1143053</v>
       </c>
       <c r="C708" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D708" s="1">
         <v>236070248737</v>
@@ -12505,7 +12502,7 @@
         <v>425510</v>
       </c>
       <c r="C709" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D709" s="1">
         <v>236070176193</v>
@@ -12519,7 +12516,7 @@
         <v>297855</v>
       </c>
       <c r="C710" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D710" s="1">
         <v>256700059023</v>
@@ -12533,7 +12530,7 @@
         <v>851020</v>
       </c>
       <c r="C711" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D711" s="1">
         <v>236070251913</v>
@@ -12547,7 +12544,7 @@
         <v>1531807</v>
       </c>
       <c r="C712" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D712" s="1">
         <v>236070190152</v>
@@ -12561,7 +12558,7 @@
         <v>446783</v>
       </c>
       <c r="C713" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D713" s="1">
         <v>236070258470</v>
@@ -12575,7 +12572,7 @@
         <v>893566</v>
       </c>
       <c r="C714" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D714" s="1">
         <v>236800004293</v>
@@ -12589,7 +12586,7 @@
         <v>2042410</v>
       </c>
       <c r="C715" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D715" s="1">
         <v>26170862432</v>
@@ -12603,7 +12600,7 @@
         <v>592702</v>
       </c>
       <c r="C716" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D716" s="1">
         <v>236800010084</v>
@@ -12617,7 +12614,7 @@
         <v>1276530</v>
       </c>
       <c r="C717" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D717" s="1">
         <v>236070240726</v>
@@ -12631,7 +12628,7 @@
         <v>893566</v>
       </c>
       <c r="C718" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D718" s="1">
         <v>236070257035</v>
@@ -12645,7 +12642,7 @@
         <v>765904</v>
       </c>
       <c r="C719" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D719" s="1">
         <v>236870031069</v>
@@ -12659,7 +12656,7 @@
         <v>1143053</v>
       </c>
       <c r="C720" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D720" s="1">
         <v>236070224837</v>
@@ -12673,7 +12670,7 @@
         <v>2286106</v>
       </c>
       <c r="C721" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D721" s="1">
         <v>236070224837</v>
@@ -12687,7 +12684,7 @@
         <v>1021205</v>
       </c>
       <c r="C722" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D722" s="1">
         <v>236070173851</v>
@@ -12701,7 +12698,7 @@
         <v>1531807</v>
       </c>
       <c r="C723" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D723" s="1">
         <v>236070190889</v>
@@ -12715,7 +12712,7 @@
         <v>595711</v>
       </c>
       <c r="C724" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D724" s="1">
         <v>236800018657</v>
@@ -12729,7 +12726,7 @@
         <v>409551</v>
       </c>
       <c r="C725" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D725" s="1">
         <v>256700066119</v>
@@ -12743,7 +12740,7 @@
         <v>446783</v>
       </c>
       <c r="C726" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D726" s="1">
         <v>256770002374</v>
@@ -12754,10 +12751,10 @@
         <v>79681316</v>
       </c>
       <c r="B727" s="1">
-        <v>1169314</v>
+        <v>1005048</v>
       </c>
       <c r="C727" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D727" s="1">
         <v>236070228358</v>
@@ -12771,7 +12768,7 @@
         <v>851020</v>
       </c>
       <c r="C728" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D728" s="1">
         <v>0</v>
@@ -12785,7 +12782,7 @@
         <v>425510</v>
       </c>
       <c r="C729" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D729" s="1">
         <v>236070203377</v>
@@ -12799,7 +12796,7 @@
         <v>1270083</v>
       </c>
       <c r="C730" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D730" s="1">
         <v>236870019841</v>
@@ -12813,7 +12810,7 @@
         <v>635041</v>
       </c>
       <c r="C731" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D731" s="1">
         <v>236870019841</v>
@@ -12827,7 +12824,7 @@
         <v>595711</v>
       </c>
       <c r="C732" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D732" s="1">
         <v>236070240312</v>
@@ -12841,7 +12838,7 @@
         <v>889053</v>
       </c>
       <c r="C733" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D733" s="1">
         <v>236070187059</v>
@@ -12855,7 +12852,7 @@
         <v>1021205</v>
       </c>
       <c r="C734" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D734" s="1">
         <v>256800034314</v>
@@ -12869,7 +12866,7 @@
         <v>846722</v>
       </c>
       <c r="C735" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D735" s="1">
         <v>236070193701</v>
@@ -12883,7 +12880,7 @@
         <v>1524071</v>
       </c>
       <c r="C736" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D736" s="1">
         <v>236070193578</v>
@@ -12897,7 +12894,7 @@
         <v>1659458</v>
       </c>
       <c r="C737" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D737" s="1">
         <v>236070221270</v>
@@ -12911,7 +12908,7 @@
         <v>1276530</v>
       </c>
       <c r="C738" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D738" s="1">
         <v>236070251806</v>
@@ -12925,7 +12922,7 @@
         <v>1021205</v>
       </c>
       <c r="C739" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D739" s="1">
         <v>236070191267</v>
@@ -12939,7 +12936,7 @@
         <v>851020</v>
       </c>
       <c r="C740" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D740" s="1">
         <v>236070244223</v>
@@ -12953,7 +12950,7 @@
         <v>1021205</v>
       </c>
       <c r="C741" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D741" s="1">
         <v>236870019866</v>
@@ -12967,7 +12964,7 @@
         <v>297855</v>
       </c>
       <c r="C742" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D742" s="1">
         <v>236070240577</v>
@@ -12981,7 +12978,7 @@
         <v>851020</v>
       </c>
       <c r="C743" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D743" s="1">
         <v>236070249370</v>
@@ -12995,7 +12992,7 @@
         <v>297855</v>
       </c>
       <c r="C744" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D744" s="1">
         <v>236070141833</v>
@@ -13009,7 +13006,7 @@
         <v>223392</v>
       </c>
       <c r="C745" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D745" s="1">
         <v>236870030905</v>
@@ -13023,7 +13020,7 @@
         <v>297855</v>
       </c>
       <c r="C746" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D746" s="1">
         <v>236870030905</v>
@@ -13037,7 +13034,7 @@
         <v>765904</v>
       </c>
       <c r="C747" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D747" s="1">
         <v>236870022589</v>
@@ -13051,7 +13048,7 @@
         <v>510602</v>
       </c>
       <c r="C748" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D748" s="1">
         <v>256800008201</v>
@@ -13065,7 +13062,7 @@
         <v>851020</v>
       </c>
       <c r="C749" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D749" s="1">
         <v>236800022212</v>
@@ -13079,7 +13076,7 @@
         <v>1787132</v>
       </c>
       <c r="C750" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D750" s="1">
         <v>236800024432</v>
@@ -13093,7 +13090,7 @@
         <v>893566</v>
       </c>
       <c r="C751" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D751" s="1">
         <v>256800044743</v>
@@ -13107,7 +13104,7 @@
         <v>297855</v>
       </c>
       <c r="C752" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D752" s="1">
         <v>236870037454</v>
@@ -13121,7 +13118,7 @@
         <v>223392</v>
       </c>
       <c r="C753" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D753" s="1">
         <v>236870037546</v>
@@ -13135,7 +13132,7 @@
         <v>297855</v>
       </c>
       <c r="C754" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D754" s="1">
         <v>236070226832</v>
@@ -13149,7 +13146,7 @@
         <v>1016047</v>
       </c>
       <c r="C755" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D755" s="1">
         <v>236070221353</v>
@@ -13163,7 +13160,7 @@
         <v>1016047</v>
       </c>
       <c r="C756" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D756" s="1">
         <v>236070221353</v>
@@ -13177,7 +13174,7 @@
         <v>638265</v>
       </c>
       <c r="C757" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D757" s="1">
         <v>236870034758</v>
@@ -13191,7 +13188,7 @@
         <v>297855</v>
       </c>
       <c r="C758" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D758" s="1">
         <v>236870006764</v>
@@ -13205,7 +13202,7 @@
         <v>893554</v>
       </c>
       <c r="C759" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D759" s="1">
         <v>236070228309</v>
@@ -13219,7 +13216,7 @@
         <v>223392</v>
       </c>
       <c r="C760" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D760" s="1">
         <v>0</v>
@@ -13233,7 +13230,7 @@
         <v>1148855</v>
       </c>
       <c r="C761" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D761" s="1">
         <v>236070186630</v>
@@ -13247,7 +13244,7 @@
         <v>510602</v>
       </c>
       <c r="C762" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D762" s="1">
         <v>236070186630</v>
@@ -13261,7 +13258,7 @@
         <v>1021205</v>
       </c>
       <c r="C763" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D763" s="1">
         <v>236870001682</v>
@@ -13275,7 +13272,7 @@
         <v>889041</v>
       </c>
       <c r="C764" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D764" s="1">
         <v>236070188180</v>
@@ -13289,7 +13286,7 @@
         <v>1397065</v>
       </c>
       <c r="C765" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D765" s="1">
         <v>236070188180</v>
@@ -13303,7 +13300,7 @@
         <v>264601</v>
       </c>
       <c r="C766" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D766" s="1">
         <v>236070220926</v>
@@ -13314,10 +13311,10 @@
         <v>73140707</v>
       </c>
       <c r="B767" s="1">
-        <v>908071</v>
+        <v>292071</v>
       </c>
       <c r="C767" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D767" s="1">
         <v>236070186655</v>
@@ -13331,7 +13328,7 @@
         <v>297855</v>
       </c>
       <c r="C768" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D768" s="1">
         <v>236870037678</v>
@@ -13345,7 +13342,7 @@
         <v>508024</v>
       </c>
       <c r="C769" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D769" s="1">
         <v>236070221585</v>
@@ -13359,7 +13356,7 @@
         <v>508024</v>
       </c>
       <c r="C770" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D770" s="1">
         <v>236070221585</v>
@@ -13373,7 +13370,7 @@
         <v>762035</v>
       </c>
       <c r="C771" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D771" s="1">
         <v>236070188990</v>
@@ -13387,7 +13384,7 @@
         <v>1531807</v>
       </c>
       <c r="C772" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D772" s="1">
         <v>236070159033</v>
@@ -13401,7 +13398,7 @@
         <v>595711</v>
       </c>
       <c r="C773" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D773" s="1">
         <v>236870028180</v>
@@ -13415,7 +13412,7 @@
         <v>1021205</v>
       </c>
       <c r="C774" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D774" s="1">
         <v>236070185178</v>
@@ -13429,7 +13426,7 @@
         <v>1021205</v>
       </c>
       <c r="C775" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D775" s="1">
         <v>236070187612</v>
@@ -13443,7 +13440,7 @@
         <v>1340349</v>
       </c>
       <c r="C776" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D776" s="1">
         <v>236870030897</v>
@@ -13457,7 +13454,7 @@
         <v>744638</v>
       </c>
       <c r="C777" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D777" s="1">
         <v>236870030897</v>
@@ -13471,7 +13468,7 @@
         <v>510602</v>
       </c>
       <c r="C778" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D778" s="1">
         <v>236070240072</v>
@@ -13485,7 +13482,7 @@
         <v>952562</v>
       </c>
       <c r="C779" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D779" s="1">
         <v>236070193768</v>
@@ -13499,7 +13496,7 @@
         <v>635041</v>
       </c>
       <c r="C780" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D780" s="1">
         <v>236070193768</v>
@@ -13513,7 +13510,7 @@
         <v>148928</v>
       </c>
       <c r="C781" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D781" s="1">
         <v>236870029329</v>
@@ -13524,10 +13521,10 @@
         <v>84031111</v>
       </c>
       <c r="B782" s="1">
-        <v>952562</v>
+        <v>767762</v>
       </c>
       <c r="C782" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D782" s="1">
         <v>236070186739</v>
@@ -13541,7 +13538,7 @@
         <v>1404157</v>
       </c>
       <c r="C783" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D783" s="1">
         <v>236070151998</v>
@@ -13555,7 +13552,7 @@
         <v>510602</v>
       </c>
       <c r="C784" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D784" s="1">
         <v>236070151998</v>
@@ -13569,7 +13566,7 @@
         <v>69392</v>
       </c>
       <c r="C785" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D785" s="1">
         <v>236870034782</v>
@@ -13583,7 +13580,7 @@
         <v>846722</v>
       </c>
       <c r="C786" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D786" s="1">
         <v>236870029063</v>
@@ -13597,7 +13594,7 @@
         <v>510602</v>
       </c>
       <c r="C787" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D787" s="1">
         <v>256700006867</v>
@@ -13611,7 +13608,7 @@
         <v>765904</v>
       </c>
       <c r="C788" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D788" s="1">
         <v>256700006867</v>
@@ -13625,7 +13622,7 @@
         <v>1021205</v>
       </c>
       <c r="C789" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D789" s="1">
         <v>256070343270</v>
@@ -13639,7 +13636,7 @@
         <v>1276514</v>
       </c>
       <c r="C790" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D790" s="1">
         <v>236070176268</v>
@@ -13653,7 +13650,7 @@
         <v>595711</v>
       </c>
       <c r="C791" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D791" s="1">
         <v>236870031135</v>
@@ -13667,7 +13664,7 @@
         <v>297855</v>
       </c>
       <c r="C792" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D792" s="1">
         <v>236870036068</v>
@@ -13681,7 +13678,7 @@
         <v>1185404</v>
       </c>
       <c r="C793" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D793" s="1">
         <v>236070203484</v>
@@ -13695,7 +13692,7 @@
         <v>762035</v>
       </c>
       <c r="C794" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D794" s="1">
         <v>236070220942</v>
@@ -13709,7 +13706,7 @@
         <v>1021205</v>
       </c>
       <c r="C795" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D795" s="1">
         <v>236070244629</v>
@@ -13723,7 +13720,7 @@
         <v>765904</v>
       </c>
       <c r="C796" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D796" s="1">
         <v>236000659805</v>
@@ -13737,7 +13734,7 @@
         <v>319132</v>
       </c>
       <c r="C797" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D797" s="1">
         <v>236870030996</v>
@@ -13751,7 +13748,7 @@
         <v>1787132</v>
       </c>
       <c r="C798" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D798" s="1">
         <v>236070222302</v>
@@ -13765,7 +13762,7 @@
         <v>297855</v>
       </c>
       <c r="C799" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D799" s="1">
         <v>236000685180</v>
@@ -13779,7 +13776,7 @@
         <v>510602</v>
       </c>
       <c r="C800" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D800" s="1">
         <v>256800040089</v>
@@ -13793,7 +13790,7 @@
         <v>592702</v>
       </c>
       <c r="C801" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D801" s="1">
         <v>236070193875</v>
@@ -13807,7 +13804,7 @@
         <v>444527</v>
       </c>
       <c r="C802" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D802" s="1">
         <v>236070193875</v>
@@ -13821,7 +13818,7 @@
         <v>592702</v>
       </c>
       <c r="C803" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D803" s="1">
         <v>236070193875</v>
@@ -13835,7 +13832,7 @@
         <v>595711</v>
       </c>
       <c r="C804" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D804" s="1">
         <v>256700043019</v>
@@ -13849,7 +13846,7 @@
         <v>255301</v>
       </c>
       <c r="C805" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D805" s="1">
         <v>236070187331</v>
@@ -13860,10 +13857,10 @@
         <v>73571866</v>
       </c>
       <c r="B806" s="1">
-        <v>781870</v>
+        <v>800486</v>
       </c>
       <c r="C806" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D806" s="1">
         <v>236800024234</v>
@@ -13877,7 +13874,7 @@
         <v>297855</v>
       </c>
       <c r="C807" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D807" s="1">
         <v>236870000130</v>
@@ -13891,7 +13888,7 @@
         <v>297855</v>
       </c>
       <c r="C808" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D808" s="1">
         <v>236870027133</v>
@@ -13905,7 +13902,7 @@
         <v>446783</v>
       </c>
       <c r="C809" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D809" s="1">
         <v>256800045880</v>
@@ -13919,7 +13916,7 @@
         <v>1016047</v>
       </c>
       <c r="C810" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D810" s="1">
         <v>257100002100</v>
@@ -13933,7 +13930,7 @@
         <v>635041</v>
       </c>
       <c r="C811" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D811" s="1">
         <v>0</v>
@@ -13947,7 +13944,7 @@
         <v>297855</v>
       </c>
       <c r="C812" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D812" s="1">
         <v>236800023764</v>
@@ -13961,7 +13958,7 @@
         <v>484015</v>
       </c>
       <c r="C813" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D813" s="1">
         <v>236870015807</v>
@@ -13975,7 +13972,7 @@
         <v>1021205</v>
       </c>
       <c r="C814" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D814" s="1">
         <v>236070149232</v>
@@ -13989,7 +13986,7 @@
         <v>1191421</v>
       </c>
       <c r="C815" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D815" s="1">
         <v>236870037827</v>
@@ -14003,7 +14000,7 @@
         <v>765904</v>
       </c>
       <c r="C816" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D816" s="1">
         <v>236800012668</v>
@@ -14017,7 +14014,7 @@
         <v>1340349</v>
       </c>
       <c r="C817" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D817" s="1">
         <v>236870025301</v>
@@ -14031,7 +14028,7 @@
         <v>635030</v>
       </c>
       <c r="C818" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D818" s="1">
         <v>236070220512</v>
@@ -14045,7 +14042,7 @@
         <v>254012</v>
       </c>
       <c r="C819" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D819" s="1">
         <v>236070220512</v>
@@ -14059,7 +14056,7 @@
         <v>223392</v>
       </c>
       <c r="C820" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D820" s="1">
         <v>236870022258</v>
@@ -14070,10 +14067,10 @@
         <v>40795617</v>
       </c>
       <c r="B821" s="1">
-        <v>781870</v>
+        <v>800486</v>
       </c>
       <c r="C821" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D821" s="1">
         <v>236870037447</v>
